--- a/text_attack_result/SST2/results.xlsx
+++ b/text_attack_result/SST2/results.xlsx
@@ -34,7 +34,7 @@
     <t>LR</t>
   </si>
   <si>
-    <t>(21.10%) (73.98%)</t>
+    <t>21.10% (73.98%)</t>
   </si>
   <si>
     <t>32.90</t>
@@ -46,7 +46,7 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>(27.80%) (66.69%)</t>
+    <t>27.80% (66.69%)</t>
   </si>
   <si>
     <t>34.57</t>
@@ -58,7 +58,7 @@
     <t>MNB</t>
   </si>
   <si>
-    <t>(23.47%) (70.96%)</t>
+    <t>23.47% (70.96%)</t>
   </si>
   <si>
     <t>34.95</t>
@@ -67,10 +67,58 @@
     <t>80.80%</t>
   </si>
   <si>
+    <t>RNB_5</t>
+  </si>
+  <si>
+    <t>24.83% (69.18%)</t>
+  </si>
+  <si>
+    <t>35.02</t>
+  </si>
+  <si>
+    <t>80.60%</t>
+  </si>
+  <si>
+    <t>RNB_15</t>
+  </si>
+  <si>
+    <t>24.47% (69.68%)</t>
+  </si>
+  <si>
+    <t>34.76</t>
+  </si>
+  <si>
+    <t>80.70%</t>
+  </si>
+  <si>
+    <t>RNB_25</t>
+  </si>
+  <si>
+    <t>24.33% (69.58%)</t>
+  </si>
+  <si>
+    <t>34.55</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>RNB_50</t>
+  </si>
+  <si>
+    <t>23.17% (70.59%)</t>
+  </si>
+  <si>
+    <t>34.17</t>
+  </si>
+  <si>
+    <t>78.77%</t>
+  </si>
+  <si>
     <t>RNB_100</t>
   </si>
   <si>
-    <t>(22.17%) (70.87%)</t>
+    <t>22.17% (70.87%)</t>
   </si>
   <si>
     <t>33.78</t>
@@ -79,58 +127,58 @@
     <t>76.10%</t>
   </si>
   <si>
-    <t>RNB_15</t>
-  </si>
-  <si>
-    <t>(24.47%) (69.68%)</t>
-  </si>
-  <si>
-    <t>34.76</t>
-  </si>
-  <si>
-    <t>80.70%</t>
-  </si>
-  <si>
-    <t>RNB_25</t>
-  </si>
-  <si>
-    <t>(24.33%) (69.58%)</t>
-  </si>
-  <si>
-    <t>34.55</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>RNB_5</t>
-  </si>
-  <si>
-    <t>(24.83%) (69.18%)</t>
-  </si>
-  <si>
-    <t>35.02</t>
-  </si>
-  <si>
-    <t>80.60%</t>
-  </si>
-  <si>
-    <t>RNB_50</t>
-  </si>
-  <si>
-    <t>(23.17%) (70.59%)</t>
-  </si>
-  <si>
-    <t>34.17</t>
-  </si>
-  <si>
-    <t>78.77%</t>
+    <t>RNB_BERT_5</t>
+  </si>
+  <si>
+    <t>17.27% (78.89%)</t>
+  </si>
+  <si>
+    <t>33.40</t>
+  </si>
+  <si>
+    <t>81.80%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_15</t>
+  </si>
+  <si>
+    <t>17.27% (78.78%)</t>
+  </si>
+  <si>
+    <t>33.67</t>
+  </si>
+  <si>
+    <t>81.37%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_25</t>
+  </si>
+  <si>
+    <t>18.00% (77.83%)</t>
+  </si>
+  <si>
+    <t>33.76</t>
+  </si>
+  <si>
+    <t>81.20%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_50</t>
+  </si>
+  <si>
+    <t>17.80% (77.80%)</t>
+  </si>
+  <si>
+    <t>33.55</t>
+  </si>
+  <si>
+    <t>80.20%</t>
   </si>
   <si>
     <t>RNB_BERT_100</t>
   </si>
   <si>
-    <t>(17.63%) (77.50%)</t>
+    <t>17.63% (77.50%)</t>
   </si>
   <si>
     <t>33.63</t>
@@ -139,214 +187,166 @@
     <t>78.40%</t>
   </si>
   <si>
-    <t>RNB_BERT_15</t>
-  </si>
-  <si>
-    <t>(17.27%) (78.78%)</t>
-  </si>
-  <si>
-    <t>33.67</t>
-  </si>
-  <si>
-    <t>81.37%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_25</t>
-  </si>
-  <si>
-    <t>(18.00%) (77.83%)</t>
-  </si>
-  <si>
-    <t>33.76</t>
-  </si>
-  <si>
-    <t>81.20%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_5</t>
-  </si>
-  <si>
-    <t>(17.27%) (78.89%)</t>
-  </si>
-  <si>
-    <t>33.40</t>
-  </si>
-  <si>
-    <t>81.80%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_50</t>
-  </si>
-  <si>
-    <t>(17.80%) (77.80%)</t>
-  </si>
-  <si>
-    <t>33.55</t>
-  </si>
-  <si>
-    <t>80.20%</t>
-  </si>
-  <si>
     <t>textfooler</t>
   </si>
   <si>
-    <t>(8.83%) (89.11%)</t>
+    <t>8.83% (89.11%)</t>
   </si>
   <si>
     <t>56.33</t>
   </si>
   <si>
-    <t>(11.77%) (85.90%)</t>
+    <t>11.77% (85.90%)</t>
   </si>
   <si>
     <t>57.79</t>
   </si>
   <si>
-    <t>(7.27%) (91.01%)</t>
+    <t>7.27% (91.01%)</t>
   </si>
   <si>
     <t>55.82</t>
   </si>
   <si>
-    <t>(10.97%) (85.59%)</t>
+    <t>8.43% (89.54%)</t>
+  </si>
+  <si>
+    <t>56.74</t>
+  </si>
+  <si>
+    <t>9.60% (88.10%)</t>
+  </si>
+  <si>
+    <t>57.36</t>
+  </si>
+  <si>
+    <t>10.37% (87.04%)</t>
+  </si>
+  <si>
+    <t>58.20</t>
+  </si>
+  <si>
+    <t>11.70% (85.15%)</t>
+  </si>
+  <si>
+    <t>58.68</t>
+  </si>
+  <si>
+    <t>10.97% (85.59%)</t>
   </si>
   <si>
     <t>59.52</t>
   </si>
   <si>
-    <t>(9.60%) (88.10%)</t>
-  </si>
-  <si>
-    <t>57.36</t>
-  </si>
-  <si>
-    <t>(10.37%) (87.04%)</t>
-  </si>
-  <si>
-    <t>58.20</t>
-  </si>
-  <si>
-    <t>(8.43%) (89.54%)</t>
-  </si>
-  <si>
-    <t>56.74</t>
-  </si>
-  <si>
-    <t>(11.70%) (85.15%)</t>
-  </si>
-  <si>
-    <t>58.68</t>
-  </si>
-  <si>
-    <t>(9.27%) (88.18%)</t>
+    <t>7.47% (90.87%)</t>
+  </si>
+  <si>
+    <t>56.29</t>
+  </si>
+  <si>
+    <t>8.23% (89.88%)</t>
+  </si>
+  <si>
+    <t>56.75</t>
+  </si>
+  <si>
+    <t>8.63% (89.37%)</t>
+  </si>
+  <si>
+    <t>57.28</t>
+  </si>
+  <si>
+    <t>9.20% (88.53%)</t>
+  </si>
+  <si>
+    <t>57.32</t>
+  </si>
+  <si>
+    <t>9.27% (88.18%)</t>
   </si>
   <si>
     <t>57.73</t>
   </si>
   <si>
-    <t>(8.23%) (89.88%)</t>
-  </si>
-  <si>
-    <t>56.75</t>
-  </si>
-  <si>
-    <t>(8.63%) (89.37%)</t>
-  </si>
-  <si>
-    <t>57.28</t>
-  </si>
-  <si>
-    <t>(7.47%) (90.87%)</t>
-  </si>
-  <si>
-    <t>56.29</t>
-  </si>
-  <si>
-    <t>(9.20%) (88.53%)</t>
-  </si>
-  <si>
-    <t>57.32</t>
-  </si>
-  <si>
     <t>deepwordbug</t>
   </si>
   <si>
-    <t>(27.40%) (66.21%)</t>
+    <t>27.40% (66.21%)</t>
   </si>
   <si>
     <t>18.73</t>
   </si>
   <si>
-    <t>(31.43%) (62.35%)</t>
+    <t>31.43% (62.35%)</t>
   </si>
   <si>
     <t>19.97</t>
   </si>
   <si>
-    <t>(33.03%) (59.12%)</t>
+    <t>33.03% (59.12%)</t>
   </si>
   <si>
     <t>19.29</t>
   </si>
   <si>
-    <t>(27.10%) (64.38%)</t>
+    <t>33.07% (58.97%)</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>31.87% (60.51%)</t>
+  </si>
+  <si>
+    <t>19.04</t>
+  </si>
+  <si>
+    <t>31.50% (60.62%)</t>
+  </si>
+  <si>
+    <t>19.01</t>
+  </si>
+  <si>
+    <t>29.50% (62.54%)</t>
+  </si>
+  <si>
+    <t>18.97</t>
+  </si>
+  <si>
+    <t>27.10% (64.38%)</t>
   </si>
   <si>
     <t>18.95</t>
   </si>
   <si>
-    <t>(31.87%) (60.51%)</t>
-  </si>
-  <si>
-    <t>19.04</t>
-  </si>
-  <si>
-    <t>(31.50%) (60.62%)</t>
-  </si>
-  <si>
-    <t>19.01</t>
-  </si>
-  <si>
-    <t>(33.07%) (58.97%)</t>
-  </si>
-  <si>
-    <t>19.27</t>
-  </si>
-  <si>
-    <t>(29.50%) (62.54%)</t>
-  </si>
-  <si>
-    <t>18.97</t>
-  </si>
-  <si>
-    <t>(21.63%) (72.40%)</t>
+    <t>21.43% (73.80%)</t>
+  </si>
+  <si>
+    <t>18.51</t>
+  </si>
+  <si>
+    <t>21.23% (73.90%)</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>22.00% (72.90%)</t>
+  </si>
+  <si>
+    <t>18.58</t>
+  </si>
+  <si>
+    <t>21.67% (72.99%)</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>21.63% (72.40%)</t>
   </si>
   <si>
     <t>18.68</t>
-  </si>
-  <si>
-    <t>(21.23%) (73.90%)</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>(22.00%) (72.90%)</t>
-  </si>
-  <si>
-    <t>18.58</t>
-  </si>
-  <si>
-    <t>(21.43%) (73.80%)</t>
-  </si>
-  <si>
-    <t>18.51</t>
-  </si>
-  <si>
-    <t>(21.67%) (72.99%)</t>
-  </si>
-  <si>
-    <t>18.50</t>
   </si>
 </sst>
 </file>

--- a/text_attack_result/SST2/results.xlsx
+++ b/text_attack_result/SST2/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
   <si>
     <t>Models</t>
   </si>
@@ -22,16 +22,190 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>deepwordbug</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>39.43% (57.60%)</t>
+  </si>
+  <si>
+    <t>20.10</t>
+  </si>
+  <si>
+    <t>93.00%</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>27.40% (66.21%)</t>
+  </si>
+  <si>
+    <t>18.73</t>
+  </si>
+  <si>
+    <t>81.10%</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>31.43% (62.35%)</t>
+  </si>
+  <si>
+    <t>19.97</t>
+  </si>
+  <si>
+    <t>83.47%</t>
+  </si>
+  <si>
+    <t>MNB</t>
+  </si>
+  <si>
+    <t>33.03% (59.12%)</t>
+  </si>
+  <si>
+    <t>19.29</t>
+  </si>
+  <si>
+    <t>80.80%</t>
+  </si>
+  <si>
+    <t>RNB_5</t>
+  </si>
+  <si>
+    <t>33.07% (58.97%)</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>80.60%</t>
+  </si>
+  <si>
+    <t>RNB_15</t>
+  </si>
+  <si>
+    <t>31.87% (60.51%)</t>
+  </si>
+  <si>
+    <t>19.04</t>
+  </si>
+  <si>
+    <t>80.70%</t>
+  </si>
+  <si>
+    <t>RNB_25</t>
+  </si>
+  <si>
+    <t>31.50% (60.62%)</t>
+  </si>
+  <si>
+    <t>19.01</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>RNB_50</t>
+  </si>
+  <si>
+    <t>29.50% (62.54%)</t>
+  </si>
+  <si>
+    <t>18.97</t>
+  </si>
+  <si>
+    <t>78.77%</t>
+  </si>
+  <si>
+    <t>RNB_100</t>
+  </si>
+  <si>
+    <t>27.10% (64.38%)</t>
+  </si>
+  <si>
+    <t>18.95</t>
+  </si>
+  <si>
+    <t>76.10%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_5</t>
+  </si>
+  <si>
+    <t>21.43% (73.80%)</t>
+  </si>
+  <si>
+    <t>18.51</t>
+  </si>
+  <si>
+    <t>81.80%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_15</t>
+  </si>
+  <si>
+    <t>21.23% (73.90%)</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>81.37%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_25</t>
+  </si>
+  <si>
+    <t>22.00% (72.90%)</t>
+  </si>
+  <si>
+    <t>18.58</t>
+  </si>
+  <si>
+    <t>81.20%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_50</t>
+  </si>
+  <si>
+    <t>21.67% (72.99%)</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>80.20%</t>
+  </si>
+  <si>
+    <t>RNB_BERT_100</t>
+  </si>
+  <si>
+    <t>21.63% (72.40%)</t>
+  </si>
+  <si>
+    <t>18.68</t>
+  </si>
+  <si>
+    <t>78.40%</t>
+  </si>
+  <si>
     <t>textbugger</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>LR</t>
+    <t>33.53% (63.95%)</t>
+  </si>
+  <si>
+    <t>35.82</t>
   </si>
   <si>
     <t>21.10% (73.98%)</t>
@@ -40,156 +214,87 @@
     <t>32.90</t>
   </si>
   <si>
-    <t>81.10%</t>
-  </si>
-  <si>
-    <t>LSTM</t>
-  </si>
-  <si>
     <t>27.80% (66.69%)</t>
   </si>
   <si>
     <t>34.57</t>
   </si>
   <si>
-    <t>83.47%</t>
-  </si>
-  <si>
-    <t>MNB</t>
-  </si>
-  <si>
     <t>23.47% (70.96%)</t>
   </si>
   <si>
     <t>34.95</t>
   </si>
   <si>
-    <t>80.80%</t>
-  </si>
-  <si>
-    <t>RNB_5</t>
-  </si>
-  <si>
     <t>24.83% (69.18%)</t>
   </si>
   <si>
     <t>35.02</t>
   </si>
   <si>
-    <t>80.60%</t>
-  </si>
-  <si>
-    <t>RNB_15</t>
-  </si>
-  <si>
     <t>24.47% (69.68%)</t>
   </si>
   <si>
     <t>34.76</t>
   </si>
   <si>
-    <t>80.70%</t>
-  </si>
-  <si>
-    <t>RNB_25</t>
-  </si>
-  <si>
     <t>24.33% (69.58%)</t>
   </si>
   <si>
     <t>34.55</t>
   </si>
   <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>RNB_50</t>
-  </si>
-  <si>
     <t>23.17% (70.59%)</t>
   </si>
   <si>
     <t>34.17</t>
   </si>
   <si>
-    <t>78.77%</t>
-  </si>
-  <si>
-    <t>RNB_100</t>
-  </si>
-  <si>
     <t>22.17% (70.87%)</t>
   </si>
   <si>
     <t>33.78</t>
   </si>
   <si>
-    <t>76.10%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_5</t>
-  </si>
-  <si>
     <t>17.27% (78.89%)</t>
   </si>
   <si>
     <t>33.40</t>
   </si>
   <si>
-    <t>81.80%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_15</t>
-  </si>
-  <si>
     <t>17.27% (78.78%)</t>
   </si>
   <si>
     <t>33.67</t>
   </si>
   <si>
-    <t>81.37%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_25</t>
-  </si>
-  <si>
     <t>18.00% (77.83%)</t>
   </si>
   <si>
     <t>33.76</t>
   </si>
   <si>
-    <t>81.20%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_50</t>
-  </si>
-  <si>
     <t>17.80% (77.80%)</t>
   </si>
   <si>
     <t>33.55</t>
   </si>
   <si>
-    <t>80.20%</t>
-  </si>
-  <si>
-    <t>RNB_BERT_100</t>
-  </si>
-  <si>
     <t>17.63% (77.50%)</t>
   </si>
   <si>
     <t>33.63</t>
   </si>
   <si>
-    <t>78.40%</t>
-  </si>
-  <si>
     <t>textfooler</t>
   </si>
   <si>
+    <t>27.03% (70.93%)</t>
+  </si>
+  <si>
+    <t>67.17</t>
+  </si>
+  <si>
     <t>8.83% (89.11%)</t>
   </si>
   <si>
@@ -266,87 +371,6 @@
   </si>
   <si>
     <t>57.73</t>
-  </si>
-  <si>
-    <t>deepwordbug</t>
-  </si>
-  <si>
-    <t>27.40% (66.21%)</t>
-  </si>
-  <si>
-    <t>18.73</t>
-  </si>
-  <si>
-    <t>31.43% (62.35%)</t>
-  </si>
-  <si>
-    <t>19.97</t>
-  </si>
-  <si>
-    <t>33.03% (59.12%)</t>
-  </si>
-  <si>
-    <t>19.29</t>
-  </si>
-  <si>
-    <t>33.07% (58.97%)</t>
-  </si>
-  <si>
-    <t>19.27</t>
-  </si>
-  <si>
-    <t>31.87% (60.51%)</t>
-  </si>
-  <si>
-    <t>19.04</t>
-  </si>
-  <si>
-    <t>31.50% (60.62%)</t>
-  </si>
-  <si>
-    <t>19.01</t>
-  </si>
-  <si>
-    <t>29.50% (62.54%)</t>
-  </si>
-  <si>
-    <t>18.97</t>
-  </si>
-  <si>
-    <t>27.10% (64.38%)</t>
-  </si>
-  <si>
-    <t>18.95</t>
-  </si>
-  <si>
-    <t>21.43% (73.80%)</t>
-  </si>
-  <si>
-    <t>18.51</t>
-  </si>
-  <si>
-    <t>21.23% (73.90%)</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>22.00% (72.90%)</t>
-  </si>
-  <si>
-    <t>18.58</t>
-  </si>
-  <si>
-    <t>21.67% (72.99%)</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>21.63% (72.40%)</t>
-  </si>
-  <si>
-    <t>18.68</t>
   </si>
 </sst>
 </file>
@@ -681,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,11 +733,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -753,16 +777,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -779,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -805,16 +829,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -831,16 +855,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -857,16 +881,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -883,16 +907,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -909,16 +933,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -935,16 +959,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -961,16 +985,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -987,16 +1011,16 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1013,16 +1037,16 @@
         <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1039,16 +1063,16 @@
         <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1065,16 +1089,42 @@
         <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
